--- a/data/trans_camb/P3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P3_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>7,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,82</t>
+          <t>5,12</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-25,97</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,59</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-15,79</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>-20,31</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,7</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4,21</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4,81</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 16,43</t>
+          <t>-16,08; 18,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 13,69</t>
+          <t>-6,98; 22,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 13,9</t>
+          <t>-7,99; 21,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-34,86; -17,28</t>
+          <t>-19,6; 20,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 8,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 3,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 5,22</t>
+          <t>-9,79; 14,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-24,27; -8,06</t>
+          <t>-10,19; 12,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 8,22</t>
+          <t>-7,6; 14,94</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 4,9</t>
+          <t>-6,27; 19,03</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 6,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-25,94; -14,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-8,63; 12,56</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-4,37; 12,85</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 13,92</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-6,69; 15,41</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>12,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-45,81%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-6,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-5,16%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-28,13%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-0,63%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>-36,03%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>5,06%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>7,89%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>9,02%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>9,44%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 31,06</t>
+          <t>-25,7; 40,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 27,02</t>
+          <t>-10,49; 50,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 27,63</t>
+          <t>-12,46; 48,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-56,49; -32,68</t>
+          <t>-31,19; 42,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 15,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,14; 7,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,6; 9,61</t>
+          <t>-17,38; 34,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-40,71; -14,74</t>
+          <t>-17,64; 27,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 15,73</t>
+          <t>-11,87; 35,08</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 9,18</t>
+          <t>-11,23; 43,42</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 13,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-44,13; -27,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-14,18; 26,24</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-7,12; 27,58</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-6,36; 30,05</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-10,84; 32,38</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,35</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,72</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-18,91</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-17,48</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>-18,03</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-0,85</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-1,09</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 4,9</t>
+          <t>-10,92; 8,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 2,34</t>
+          <t>-11,07; 5,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 2,4</t>
+          <t>-10,34; 6,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-24,82; -12,84</t>
+          <t>-6,88; 11,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 7,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 5,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 6,09</t>
+          <t>-6,79; 9,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-22,87; -11,63</t>
+          <t>-7,1; 7,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 4,01</t>
+          <t>-6,72; 7,75</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 2,06</t>
+          <t>-7,16; 8,57</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 2,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-22,03; -13,75</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-5,39; 6,33</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-6,02; 4,52</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-6,49; 4,16</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-4,32; 7,82</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,73%</t>
+          <t>-1,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-8,35%</t>
+          <t>-4,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,14%</t>
+          <t>-4,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-36,29%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-36,91%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-0,57%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-4,02%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-3,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>-36,25%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,49%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-1,73%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-2,23%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>2,84%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,2; 9,82</t>
+          <t>-19,44; 18,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,32; 4,82</t>
+          <t>-19,53; 13,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,17; 4,6</t>
+          <t>-18,5; 15,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-45,26; -26,01</t>
+          <t>-12,51; 26,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 16,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 11,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 13,44</t>
+          <t>-13,1; 21,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-45,88; -25,71</t>
+          <t>-13,71; 18,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 8,54</t>
+          <t>-12,98; 18,27</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 4,31</t>
+          <t>-13,71; 20,24</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 5,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-42,91; -28,69</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-10,29; 13,98</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-11,5; 10,01</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-12,19; 9,28</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-8,61; 16,83</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,42</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-8,33</t>
+          <t>-5,39</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-4,21</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-15,59</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-3,9</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>-12,27</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,84</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1,54</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-0,51</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-1,46</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 6,0</t>
+          <t>-9,7; 9,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 7,84</t>
+          <t>-8,44; 9,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 3,89</t>
+          <t>-11,79; 5,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,03; 1,58</t>
+          <t>-15,67; 3,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 4,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 3,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 1,76</t>
+          <t>-6,04; 11,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-22,92; -8,57</t>
+          <t>-5,16; 10,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 2,94</t>
+          <t>-6,2; 8,59</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 3,65</t>
+          <t>-6,5; 10,22</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 0,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-17,69; -6,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-4,19; 8,5</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-4,27; 7,75</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-6,33; 5,24</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-7,46; 4,39</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-4,29%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-7,44%</t>
+          <t>-6,09%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-18,1%</t>
+          <t>-11,89%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-6,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-9,68%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-35,89%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-4,26%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-3,15%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-8,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>-27,42%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>4,47%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>3,73%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-1,23%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-3,54%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1790,99 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-18,37; 14,23</t>
+          <t>-19,64; 23,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 19,01</t>
+          <t>-16,59; 23,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-20,65; 8,96</t>
+          <t>-22,93; 14,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,07; 3,46</t>
+          <t>-30,91; 9,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-20,94; 11,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,64; 9,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-22,12; 4,39</t>
+          <t>-13,85; 33,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,7; -20,85</t>
+          <t>-11,96; 30,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-15,43; 6,63</t>
+          <t>-14,33; 25,89</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 8,68</t>
+          <t>-15,02; 30,88</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 1,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-37,46; -15,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-9,47; 22,81</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-9,64; 20,97</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-13,88; 14,49</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-16,62; 11,57</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-5,47</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-17,73</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-15,21</t>
+          <t>-2,23</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-8,28</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>-16,44</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-2,19</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-3,92</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-4,37</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 4,13</t>
+          <t>-9,5; 3,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 3,19</t>
+          <t>-12,97; 2,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 2,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-22,07; -13,24</t>
+          <t>-7,85; 6,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 3,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 2,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 1,79</t>
+          <t>-7,76; 3,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-19,13; -10,79</t>
+          <t>-8,5; 4,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 2,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 1,54</t>
+          <t>-14,44; -1,39</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 1,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-19,43; -13,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-6,36; 2,05</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-8,59; 1,6</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-9,41; 0,49</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,02%</t>
+          <t>-5,37%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,93%</t>
+          <t>-10,49%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-3,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-34,65%</t>
+          <t>-1,64%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-3,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-3,64%</t>
+          <t>-3,09%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-31,49%</t>
+          <t>-4,37%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-0,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-2,57%</t>
+          <t>-16,22%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-3,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>-33,08%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-4,25%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-7,59%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-8,48%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,509 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 8,56</t>
+          <t>-17,45; 7,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 6,52</t>
+          <t>-23,57; 4,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 5,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-41,99; -26,89</t>
+          <t>-14,19; 13,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 7,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 4,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 3,9</t>
+          <t>-14,63; 7,49</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-38,47; -23,03</t>
+          <t>-16,11; 9,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 5,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 3,13</t>
+          <t>-27,53; -2,64</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 2,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-38,28; -27,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-12,16; 4,13</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-16,08; 3,24</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-17,55; 1,06</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,6</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,72</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-2,1</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-1,26</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,48</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-1,37</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-1,55</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-2,09</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-1,03</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-1,54</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-1,81</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>-1,69</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-6,19; 3,0</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-6,35; 2,55</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-6,65; 2,19</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-6,32; 3,43</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-4,24; 3,28</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-5,33; 2,1</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-5,44; 1,88</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-6,08; 2,18</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-3,73; 1,73</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-4,5; 1,02</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-4,7; 0,91</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-5,03; 1,06</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-3,12%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-3,36%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-4,1%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-2,46%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-1,0%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-2,83%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-3,2%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-4,31%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-2,06%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-3,09%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-3,64%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>-3,39%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-11,63; 6,14</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-12,16; 5,24</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-12,42; 4,52</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-11,93; 6,97</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-8,47; 7,04</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-10,59; 4,45</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-10,76; 4,05</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-12,02; 4,54</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-7,34; 3,51</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-8,85; 2,13</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-9,09; 1,86</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-9,72; 2,23</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
